--- a/LubanConfig/MiniTemplate/Datas/#productitem.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/#productitem.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -200,6 +200,27 @@
   </si>
   <si>
     <t>cansi</t>
+  </si>
+  <si>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>产自合成工坊</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>药草泥</t>
+  </si>
+  <si>
+    <t>碗</t>
+  </si>
+  <si>
+    <t>HerbMud</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1236,7 +1257,7 @@
         <v>21</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1256,7 +1277,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1276,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -1296,7 +1317,7 @@
         <v>31</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" spans="2:7">
@@ -1316,7 +1337,7 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
@@ -1336,7 +1357,7 @@
         <v>37</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -1353,7 +1374,7 @@
         <v>40</v>
       </c>
       <c r="G11">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -1430,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -1450,7 +1471,47 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
